--- a/StructureDefinition-ext-R5-MedicationKnowledge.packaging.xlsx
+++ b/StructureDefinition-ext-R5-MedicationKnowledge.packaging.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -340,7 +340,7 @@
     <t>The cost of the packaged medication.</t>
   </si>
   <si>
-    <t>Element `MedicationKnowledge.packaging.cost` is mapped to FHIR R4 structure `MedicationKnowledge`, but has no target element specified.</t>
+    <t>Element `MedicationKnowledge.packaging.cost` is will have a context of MedicationKnowledge.packaging based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
   </si>
   <si>
     <t>Extension.extension:cost.id</t>
@@ -431,7 +431,8 @@
     <t>A reference to a PackagedProductDefinition that provides the details of the product that is in the packaging and is being priced.</t>
   </si>
   <si>
-    <t>Element `MedicationKnowledge.packaging.packagedProduct` is mapped to FHIR R4 structure `MedicationKnowledge`, but has no target element specified.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationKnowledge.packaging.packagedProduct` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `MedicationKnowledge.packaging.packagedProduct` is will have a context of MedicationKnowledge.packaging based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
   </si>
   <si>
     <t>Extension.extension:packagedProduct.id</t>
@@ -787,7 +788,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="125.00390625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="212.90234375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-MedicationKnowledge.packaging.xlsx
+++ b/StructureDefinition-ext-R5-MedicationKnowledge.packaging.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="139">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `MedicationKnowledge.packaging` 0..1 `BackboneElement`
 *  R4: `MedicationKnowledge.packaging` 0..1 `BackboneElement`
 Following are the generation technical comments:
-Element `MedicationKnowledge.packaging` is mapped to FHIR R4 element `MedicationKnowledge.packaging`.</t>
+Element `MedicationKnowledge.packaging` has is mapped to FHIR R4 element `MedicationKnowledge.packaging`, but has no comparisons.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -340,7 +340,8 @@
     <t>The cost of the packaged medication.</t>
   </si>
   <si>
-    <t>Element `MedicationKnowledge.packaging.cost` is will have a context of MedicationKnowledge.packaging based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
+    <t>Element `MedicationKnowledge.packaging.cost` is part of an existing definition because parent element `MedicationKnowledge.packaging` requires a cross-version extension.
+Element `MedicationKnowledge.packaging.cost` has a context of MedicationKnowledge.packaging based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
   </si>
   <si>
     <t>Extension.extension:cost.id</t>
@@ -431,8 +432,9 @@
     <t>A reference to a PackagedProductDefinition that provides the details of the product that is in the packaging and is being priced.</t>
   </si>
   <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationKnowledge.packaging.packagedProduct` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MedicationKnowledge.packaging.packagedProduct` is will have a context of MedicationKnowledge.packaging based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
+    <t>Element `MedicationKnowledge.packaging.packagedProduct` is part of an existing definition because parent element `MedicationKnowledge.packaging` requires a cross-version extension.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationKnowledge.packaging.packagedProduct` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `MedicationKnowledge.packaging.packagedProduct` has a context of MedicationKnowledge.packaging based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
   </si>
   <si>
     <t>Extension.extension:packagedProduct.id</t>
@@ -442,6 +444,9 @@
   </si>
   <si>
     <t>Extension.extension:packagedProduct.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.packaging.packagedProduct</t>
   </si>
   <si>
     <t>Extension.extension:packagedProduct.value[x]</t>
@@ -2117,7 +2122,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2179,7 +2184,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>122</v>
@@ -2205,7 +2210,7 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>130</v>

--- a/StructureDefinition-ext-R5-MedicationKnowledge.packaging.xlsx
+++ b/StructureDefinition-ext-R5-MedicationKnowledge.packaging.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -452,7 +452,7 @@
     <t>Extension.extension:packagedProduct.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-PackagedProductDefinition|0.0.1-snapshot-3|Basic|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-PackagedProductDefinition|Basic)
 </t>
   </si>
 </sst>

--- a/StructureDefinition-ext-R5-MedicationKnowledge.packaging.xlsx
+++ b/StructureDefinition-ext-R5-MedicationKnowledge.packaging.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="138">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `MedicationKnowledge.packaging` 0..1 `BackboneElement`
 *  R4: `MedicationKnowledge.packaging` 0..1 `BackboneElement`
 Following are the generation technical comments:
-Element `MedicationKnowledge.packaging` has is mapped to FHIR R4 element `MedicationKnowledge.packaging`, but has no comparisons.</t>
+Element `MedicationKnowledge.packaging` is mapped to FHIR R4 element `MedicationKnowledge.packaging` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -340,8 +340,7 @@
     <t>The cost of the packaged medication.</t>
   </si>
   <si>
-    <t>Element `MedicationKnowledge.packaging.cost` is part of an existing definition because parent element `MedicationKnowledge.packaging` requires a cross-version extension.
-Element `MedicationKnowledge.packaging.cost` has a context of MedicationKnowledge.packaging based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
+    <t>Element `MedicationKnowledge.packaging.cost` has a context of MedicationKnowledge.packaging based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
   </si>
   <si>
     <t>Extension.extension:cost.id</t>
@@ -432,8 +431,7 @@
     <t>A reference to a PackagedProductDefinition that provides the details of the product that is in the packaging and is being priced.</t>
   </si>
   <si>
-    <t>Element `MedicationKnowledge.packaging.packagedProduct` is part of an existing definition because parent element `MedicationKnowledge.packaging` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationKnowledge.packaging.packagedProduct` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationKnowledge.packaging.packagedProduct` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `MedicationKnowledge.packaging.packagedProduct` has a context of MedicationKnowledge.packaging based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
   </si>
   <si>
@@ -446,13 +444,10 @@
     <t>Extension.extension:packagedProduct.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.packaging.packagedProduct</t>
-  </si>
-  <si>
     <t>Extension.extension:packagedProduct.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-PackagedProductDefinition|Basic)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-PackagedProductDefinition|0.0.1-snapshot-3|Basic|4.0.1)
 </t>
   </si>
 </sst>
@@ -2122,7 +2117,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2184,7 +2179,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>122</v>
@@ -2210,7 +2205,7 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>130</v>
